--- a/sict/day6/NaverDataLab.xlsx
+++ b/sict/day6/NaverDataLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A622EA6-B847-4404-BD51-08CDA36B8CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82671648-8E55-456C-B99D-A74568C2D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6504" yWindow="1104" windowWidth="13512" windowHeight="9756" xr2:uid="{7359374C-E59C-4F37-9C40-F6900BBD6BA4}"/>
+    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{3949CA2F-A870-4974-BDF9-1C0E70800EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,112 +36,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
-  <si>
-    <t>6 린넨자켓</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+  <si>
+    <t>1 원피스</t>
+  </si>
+  <si>
+    <t>2 써스데이아일랜드원피스</t>
+  </si>
+  <si>
+    <t>3 블라우스</t>
+  </si>
+  <si>
+    <t>4 여름가디건</t>
+  </si>
+  <si>
+    <t>5 써스데이아일랜드</t>
+  </si>
+  <si>
+    <t>6 티셔츠</t>
+  </si>
+  <si>
+    <t>7 여름원피스</t>
+  </si>
+  <si>
+    <t>8 린넨자켓</t>
+  </si>
+  <si>
+    <t>9 나이키바람막이</t>
+  </si>
+  <si>
+    <t>10 반팔티</t>
+  </si>
+  <si>
+    <t>2023.05.14.(일)</t>
+  </si>
+  <si>
+    <t>4 써스데이아일랜드</t>
+  </si>
+  <si>
+    <t>5 린넨자켓</t>
+  </si>
+  <si>
+    <t>6 여름원피스</t>
+  </si>
+  <si>
+    <t>7 여름가디건</t>
+  </si>
+  <si>
+    <t>8 롱원피스</t>
+  </si>
+  <si>
+    <t>10 티셔츠</t>
+  </si>
+  <si>
+    <t>2023.05.13.(토)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 남성팬티</t>
+    <t>3 반티</t>
+  </si>
+  <si>
+    <t>4 블라우스</t>
+  </si>
+  <si>
+    <t>6 써스데이아일랜드</t>
+  </si>
+  <si>
+    <t>8 여름가디건</t>
+  </si>
+  <si>
+    <t>9 티셔츠</t>
+  </si>
+  <si>
+    <t>10 롱원피스</t>
+  </si>
+  <si>
+    <t>2023.05.12.(금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 원피스</t>
+    <t>2 반티</t>
+  </si>
+  <si>
+    <t>6 여름가디건</t>
+  </si>
+  <si>
+    <t>8 반팔티</t>
+  </si>
+  <si>
+    <t>2023.05.11.(목)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 반티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 써스데이아일랜드원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 블라우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 린넨자켓</t>
-  </si>
-  <si>
-    <t>7 케네스콜청바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 여름가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 티셔츠</t>
-  </si>
-  <si>
-    <t>9 티셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 나이키바람막이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 원피스</t>
-  </si>
-  <si>
-    <t>2 반티</t>
-  </si>
-  <si>
-    <t>3 써스데이아일랜드원피스</t>
-  </si>
-  <si>
-    <t>4 블라우스</t>
-  </si>
-  <si>
-    <t>5 린넨자켓</t>
-  </si>
-  <si>
-    <t>6 나이키바람막이</t>
-  </si>
-  <si>
-    <t>7 하객원피스</t>
-  </si>
-  <si>
-    <t>8 티셔츠</t>
-  </si>
-  <si>
-    <t>9 여름가디건</t>
-  </si>
-  <si>
-    <t>10 롱원피스</t>
-  </si>
-  <si>
-    <t>5 나이키바람막이</t>
-  </si>
-  <si>
-    <t>7 롱원피스</t>
-  </si>
-  <si>
-    <t>8 하객원피스</t>
-  </si>
-  <si>
-    <t>10 가디건</t>
-  </si>
-  <si>
-    <t>2 써스데이아일랜드원피스</t>
-  </si>
-  <si>
-    <t>3 블라우스</t>
-  </si>
-  <si>
-    <t>4 나이키바람막이</t>
-  </si>
-  <si>
-    <t>5 써스데이아일랜드</t>
-  </si>
-  <si>
-    <t>9 가디건</t>
-  </si>
-  <si>
-    <t>10 아디다스바람막이</t>
   </si>
 </sst>
 </file>
@@ -504,153 +488,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B715FC-A060-4219-A930-BDDCB7298286}">
-  <dimension ref="A2:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2FBA5-3B7D-4F1A-876B-65011046689E}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sict/day6/NaverDataLab.xlsx
+++ b/sict/day6/NaverDataLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82671648-8E55-456C-B99D-A74568C2D46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9720FA2-37BC-4E03-B26B-43B3CD1E554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{3949CA2F-A870-4974-BDF9-1C0E70800EAA}"/>
+    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{848D9AC6-4A8D-4F85-9210-EDE3D95F6C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,57 +36,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>1 원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 써스데이아일랜드원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 블라우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 써스데이아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7 여름원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 린넨자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9 나이키바람막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 반팔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.14.(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 써스데이아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 린넨자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 여름원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 롱원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.13.(토)</t>
@@ -94,21 +111,27 @@
   </si>
   <si>
     <t>3 반티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 블라우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 써스데이아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 롱원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.12.(금)</t>
@@ -116,12 +139,19 @@
   </si>
   <si>
     <t>2 반티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 써스데이아일랜드원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 반팔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.11.(목)</t>
@@ -488,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2FBA5-3B7D-4F1A-876B-65011046689E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045045D-D59F-425E-AA8C-6215700F2AC7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -499,13 +529,22 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -522,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -539,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -581,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -609,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">

--- a/sict/day6/NaverDataLab.xlsx
+++ b/sict/day6/NaverDataLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9720FA2-37BC-4E03-B26B-43B3CD1E554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BC373-9AA6-4714-ABCC-4DBD8392E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{848D9AC6-4A8D-4F85-9210-EDE3D95F6C41}"/>
+    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{C2E70984-F65E-4156-997F-61DA3E1BCF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045045D-D59F-425E-AA8C-6215700F2AC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ECA5D2-E8C1-4DC6-9E10-1780DDF69D37}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/sict/day6/NaverDataLab.xlsx
+++ b/sict/day6/NaverDataLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BC373-9AA6-4714-ABCC-4DBD8392E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C7082-606C-4841-B5B1-DACB1CD26CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{C2E70984-F65E-4156-997F-61DA3E1BCF71}"/>
+    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{2882A41F-9586-4BD2-8A80-C1C3CBD6478D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,123 +39,93 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>1 원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 써스데이아일랜드원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 블라우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 여름가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 써스데이아일랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 티셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7 여름원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 린넨자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9 나이키바람막이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 반팔티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.14.(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 써스데이아일랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 린넨자켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 여름원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7 여름가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 롱원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 티셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.13.(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 반티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 블라우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 써스데이아일랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 여름가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9 티셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 롱원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.12.(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 반티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 써스데이아일랜드원피스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 여름가디건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 반팔티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.11.(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,7 +488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ECA5D2-E8C1-4DC6-9E10-1780DDF69D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA20D73-C233-410C-B26C-ED50FD80D11A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/sict/day6/NaverDataLab.xlsx
+++ b/sict/day6/NaverDataLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C7082-606C-4841-B5B1-DACB1CD26CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD963BF-C6F4-4BC6-B8AB-7F8D7979AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{2882A41F-9586-4BD2-8A80-C1C3CBD6478D}"/>
+    <workbookView xWindow="8748" yWindow="2172" windowWidth="13512" windowHeight="9756" xr2:uid="{95F39586-6DB1-472C-9BC5-44D07EAE07EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,93 +39,123 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>1 원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 써스데이아일랜드원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 블라우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 써스데이아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7 여름원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 린넨자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9 나이키바람막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 반팔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.14.(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 써스데이아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 린넨자켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 여름원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 롱원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.13.(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 반티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 블라우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 써스데이아일랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9 티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10 롱원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.12.(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 반티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 써스데이아일랜드원피스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 여름가디건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8 반팔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2023.05.11.(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -488,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA20D73-C233-410C-B26C-ED50FD80D11A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16401F5E-0EE0-493E-A0A3-809168CB5C40}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
